--- a/小组经费.xlsx
+++ b/小组经费.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90FC45B-6462-4677-A0DB-7053ED824643}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F67B739-F260-4184-953C-550720164E6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>集体外卖
 魏向锴-12 郭正晟-12
@@ -77,6 +77,10 @@
   <si>
     <t>软著邮寄费
 王少成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.9.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,6 +607,20 @@
         <v>163</v>
       </c>
     </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>663</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
